--- a/Excels/Soldiers.xlsx
+++ b/Excels/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12240"/>
+    <workbookView windowWidth="21240" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>

--- a/Excels/Soldiers.xlsx
+++ b/Excels/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="10560"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>唯一标识</t>
   </si>
   <si>
-    <t>兵种Uid</t>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>攻击力</t>
@@ -43,16 +46,19 @@
     <t>防御力</t>
   </si>
   <si>
-    <t>生命力</t>
-  </si>
-  <si>
     <t>速度</t>
   </si>
   <si>
+    <t>技能</t>
+  </si>
+  <si>
     <t>Uid</t>
   </si>
   <si>
-    <t>Soldier</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
   <si>
     <t>Atk</t>
@@ -61,22 +67,34 @@
     <t>Def</t>
   </si>
   <si>
-    <t>Hp</t>
-  </si>
-  <si>
     <t>Speed</t>
   </si>
   <si>
+    <t>Actions</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>string+</t>
+  </si>
+  <si>
     <t>all</t>
   </si>
   <si>
     <t>client</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>足轻</t>
+  </si>
+  <si>
+    <t>1;2</t>
   </si>
 </sst>
 </file>
@@ -1013,30 +1031,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="16.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="1" customWidth="1"/>
-    <col min="6" max="11" width="14.875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="16.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
+    <col min="5" max="11" width="14.875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1048,76 +1064,88 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
-        <v>100</v>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>100</v>
@@ -1128,45 +1156,8 @@
       <c r="F5" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>150</v>
-      </c>
-      <c r="D6" s="1">
-        <v>150</v>
-      </c>
-      <c r="E6" s="1">
-        <v>150</v>
-      </c>
-      <c r="F6" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>200</v>
-      </c>
-      <c r="D7" s="1">
-        <v>200</v>
-      </c>
-      <c r="E7" s="1">
-        <v>200</v>
-      </c>
-      <c r="F7" s="1">
-        <v>200</v>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Soldiers.xlsx
+++ b/Excels/Soldiers.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>唯一标识</t>
   </si>
@@ -52,6 +52,12 @@
     <t>技能</t>
   </si>
   <si>
+    <t>预制体Uid</t>
+  </si>
+  <si>
+    <t>预制体图片</t>
+  </si>
+  <si>
     <t>Uid</t>
   </si>
   <si>
@@ -71,6 +77,12 @@
   </si>
   <si>
     <t>Actions</t>
+  </si>
+  <si>
+    <t>PrefabUid</t>
+  </si>
+  <si>
+    <t>Textures</t>
   </si>
   <si>
     <t>string</t>
@@ -1031,13 +1043,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="3" width="16.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
@@ -1045,7 +1057,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1067,77 +1079,101 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1145,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>100</v>
@@ -1157,7 +1193,10 @@
         <v>100</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="H5" s="1">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Soldiers.xlsx
+++ b/Excels/Soldiers.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>唯一标识</t>
   </si>
@@ -55,7 +55,7 @@
     <t>预制体Uid</t>
   </si>
   <si>
-    <t>预制体图片</t>
+    <t>预制体spine</t>
   </si>
   <si>
     <t>Uid</t>
@@ -107,6 +107,102 @@
   </si>
   <si>
     <t>1;2</t>
+  </si>
+  <si>
+    <t>9101_SkeletonData</t>
+  </si>
+  <si>
+    <t>老练足轻</t>
+  </si>
+  <si>
+    <t>9102_SkeletonData</t>
+  </si>
+  <si>
+    <t>稚刀队</t>
+  </si>
+  <si>
+    <t>亲卫队</t>
+  </si>
+  <si>
+    <t>突击队</t>
+  </si>
+  <si>
+    <t>神风队</t>
+  </si>
+  <si>
+    <t>武士</t>
+  </si>
+  <si>
+    <t>高级武士</t>
+  </si>
+  <si>
+    <t>野太刀</t>
+  </si>
+  <si>
+    <t>剑客</t>
+  </si>
+  <si>
+    <t>大剑豪</t>
+  </si>
+  <si>
+    <t>骑兵队</t>
+  </si>
+  <si>
+    <t>母衣众</t>
+  </si>
+  <si>
+    <t>赤母衣</t>
+  </si>
+  <si>
+    <t>精锐赤备队</t>
+  </si>
+  <si>
+    <t>铁甲骑</t>
+  </si>
+  <si>
+    <t>稚刀骑</t>
+  </si>
+  <si>
+    <t>重装稚刀骑</t>
+  </si>
+  <si>
+    <t>舶来铁骑</t>
+  </si>
+  <si>
+    <t>西洋重甲骑</t>
+  </si>
+  <si>
+    <t>弓箭队</t>
+  </si>
+  <si>
+    <t>长弓手</t>
+  </si>
+  <si>
+    <t>神射手</t>
+  </si>
+  <si>
+    <t>弓取</t>
+  </si>
+  <si>
+    <t>连弩手</t>
+  </si>
+  <si>
+    <t>京洛重弩</t>
+  </si>
+  <si>
+    <t>铁炮队</t>
+  </si>
+  <si>
+    <t>石火矢</t>
+  </si>
+  <si>
+    <t>加农铁炮</t>
+  </si>
+  <si>
+    <t>雨铁队</t>
+  </si>
+  <si>
+    <t>种子岛</t>
   </si>
 </sst>
 </file>
@@ -1043,17 +1139,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="16.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
-    <col min="5" max="11" width="14.875" style="1" customWidth="1"/>
+    <col min="5" max="8" width="14.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="14.875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1173,7 +1271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1184,10 +1282,10 @@
         <v>24</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
@@ -1197,6 +1295,357 @@
       </c>
       <c r="H5" s="1">
         <v>101</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1">
+        <v>101</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Soldiers.xlsx
+++ b/Excels/Soldiers.xlsx
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1275,8 +1275,8 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
+      <c r="B5" s="1">
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1305,7 +1305,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -1333,8 +1333,8 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
-        <v>3</v>
+      <c r="B7" s="1">
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>29</v>
@@ -1345,7 +1345,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
@@ -1355,8 +1355,8 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
-        <v>5</v>
+      <c r="B9" s="1">
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>31</v>
@@ -1367,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1377,8 +1377,8 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
-        <v>7</v>
+      <c r="B11" s="1">
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1389,7 +1389,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>34</v>
@@ -1399,8 +1399,8 @@
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
-        <v>9</v>
+      <c r="B13" s="1">
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
@@ -1411,7 +1411,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>36</v>
@@ -1421,8 +1421,8 @@
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="2">
-        <v>11</v>
+      <c r="B15" s="1">
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>37</v>
@@ -1433,7 +1433,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -1443,8 +1443,8 @@
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
-        <v>13</v>
+      <c r="B17" s="1">
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>39</v>
@@ -1455,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>40</v>
@@ -1465,8 +1465,8 @@
       <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="2">
-        <v>15</v>
+      <c r="B19" s="1">
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>41</v>
@@ -1477,7 +1477,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>42</v>
@@ -1487,8 +1487,8 @@
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="2">
-        <v>17</v>
+      <c r="B21" s="1">
+        <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
@@ -1499,7 +1499,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>44</v>
@@ -1509,8 +1509,8 @@
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="2">
-        <v>19</v>
+      <c r="B23" s="1">
+        <v>118</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>45</v>
@@ -1521,7 +1521,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>46</v>
@@ -1531,8 +1531,8 @@
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="2">
-        <v>21</v>
+      <c r="B25" s="1">
+        <v>120</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>47</v>
@@ -1543,7 +1543,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="1">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>48</v>
@@ -1553,8 +1553,8 @@
       <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="2">
-        <v>23</v>
+      <c r="B27" s="1">
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>49</v>
@@ -1565,7 +1565,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>50</v>
@@ -1575,8 +1575,8 @@
       <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B29" s="2">
-        <v>25</v>
+      <c r="B29" s="1">
+        <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>51</v>
@@ -1587,7 +1587,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="1">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>52</v>
@@ -1597,8 +1597,8 @@
       <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="B31" s="2">
-        <v>27</v>
+      <c r="B31" s="1">
+        <v>126</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>53</v>
@@ -1609,7 +1609,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>54</v>
@@ -1619,8 +1619,8 @@
       <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="2">
-        <v>29</v>
+      <c r="B33" s="1">
+        <v>128</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>55</v>
@@ -1631,7 +1631,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="1">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>56</v>
@@ -1641,8 +1641,8 @@
       <c r="A35" s="2">
         <v>31</v>
       </c>
-      <c r="B35" s="2">
-        <v>31</v>
+      <c r="B35" s="1">
+        <v>130</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>57</v>
